--- a/LaLiga_def.xlsx
+++ b/LaLiga_def.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY Projects\PythonProblems-main\CPS109Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C795B00-DE45-4A59-81F7-8B4CE663E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED71D76-2FE8-4CA7-8AA1-B52E30F3FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D470AD27-5B8C-4678-9987-28DEF372D46C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="231">
   <si>
     <t>UID</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>GHA</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>£95K - £950K</t>
@@ -801,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,9 +813,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE1D03F-AAF6-4F14-9B36-0708C292DBA7}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1666,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>78060464</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1814,7 +1808,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>67295761</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2382,7 +2376,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>27066387</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2453,7 +2447,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>28116427</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4350,8 +4344,8 @@
       <c r="Q45" s="3">
         <v>5.2</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>145</v>
+      <c r="R45" s="3">
+        <v>0.21</v>
       </c>
       <c r="S45" s="3">
         <v>1.3</v>
@@ -4366,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4374,7 +4368,7 @@
         <v>67282688</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>141</v>
@@ -4437,7 +4431,7 @@
         <v>37</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4445,7 +4439,7 @@
         <v>43111412</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>141</v>
@@ -4512,23 +4506,23 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>19273276</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G48" s="3">
         <v>28</v>
@@ -4579,7 +4573,7 @@
         <v>44</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4587,10 +4581,10 @@
         <v>16010162</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>25</v>
@@ -4650,27 +4644,27 @@
         <v>62</v>
       </c>
       <c r="W49" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>63013145</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>63013145</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G50" s="3">
         <v>30</v>
@@ -4721,27 +4715,27 @@
         <v>25</v>
       </c>
       <c r="W50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>92023410</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>92023410</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G51" s="3">
         <v>32</v>
@@ -4792,27 +4786,27 @@
         <v>44</v>
       </c>
       <c r="W51" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>43296495</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>43296495</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="G52" s="3">
         <v>25</v>
@@ -4863,27 +4857,27 @@
         <v>5</v>
       </c>
       <c r="W52" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>43212365</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>43212365</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G53" s="3">
         <v>27</v>
@@ -4934,7 +4928,7 @@
         <v>34</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4942,10 +4936,10 @@
         <v>14023371</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>25</v>
@@ -5005,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5013,19 +5007,19 @@
         <v>83228401</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G55" s="3">
         <v>27</v>
@@ -5076,7 +5070,7 @@
         <v>37</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,10 +5078,10 @@
         <v>48037162</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -5147,7 +5141,7 @@
         <v>36</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5155,10 +5149,10 @@
         <v>14023020</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>25</v>
@@ -5218,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5226,10 +5220,10 @@
         <v>67190072</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>25</v>
@@ -5297,10 +5291,10 @@
         <v>37052471</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>25</v>
@@ -5360,7 +5354,7 @@
         <v>35</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5368,10 +5362,10 @@
         <v>67194879</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>25</v>
@@ -5431,7 +5425,7 @@
         <v>21</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5439,10 +5433,10 @@
         <v>67139775</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>25</v>
@@ -5510,10 +5504,10 @@
         <v>67295020</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>25</v>
@@ -5573,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5581,11 +5575,11 @@
         <v>19190440</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>30</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G63" s="3">
         <v>29</v>
@@ -5644,7 +5638,7 @@
         <v>26</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5652,10 +5646,10 @@
         <v>62013805</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>25</v>
@@ -5715,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5723,10 +5717,10 @@
         <v>49048365</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>25</v>
@@ -5786,7 +5780,7 @@
         <v>37</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5794,10 +5788,10 @@
         <v>2000165617</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
@@ -5857,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5865,10 +5859,10 @@
         <v>95078299</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>25</v>
@@ -5928,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5936,19 +5930,19 @@
         <v>67295022</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G68" s="3">
         <v>24</v>
@@ -5999,7 +5993,7 @@
         <v>33</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6007,10 +6001,10 @@
         <v>2000126407</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>25</v>
@@ -6070,7 +6064,7 @@
         <v>16</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6078,19 +6072,19 @@
         <v>70118933</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="G70" s="3">
         <v>25</v>
@@ -6141,7 +6135,7 @@
         <v>33</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6149,19 +6143,19 @@
         <v>48036643</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="G71" s="3">
         <v>29</v>
@@ -6212,7 +6206,7 @@
         <v>39</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6220,10 +6214,10 @@
         <v>2000030816</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>25</v>
@@ -6283,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,10 +6285,10 @@
         <v>2000227983</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>25</v>
@@ -6354,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6362,10 +6356,10 @@
         <v>27128916</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>25</v>
@@ -6425,7 +6419,7 @@
         <v>28</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6433,10 +6427,10 @@
         <v>85063747</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>25</v>
@@ -6496,7 +6490,7 @@
         <v>30</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6504,10 +6498,10 @@
         <v>67258573</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>25</v>
@@ -6551,8 +6545,8 @@
       <c r="Q76" s="3">
         <v>5.82</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>145</v>
+      <c r="R76" s="3">
+        <v>0.21</v>
       </c>
       <c r="S76" s="3">
         <v>0.26</v>
@@ -6567,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6575,10 +6569,10 @@
         <v>67269422</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>25</v>
@@ -6638,18 +6632,18 @@
         <v>23</v>
       </c>
       <c r="W77" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>67248170</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
-        <v>67248170</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>25</v>
@@ -6709,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6717,10 +6711,10 @@
         <v>92096972</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>25</v>
@@ -6729,7 +6723,7 @@
         <v>30</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G79" s="3">
         <v>24</v>
@@ -6780,7 +6774,7 @@
         <v>18</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6788,10 +6782,10 @@
         <v>83243060</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>25</v>
@@ -6851,7 +6845,7 @@
         <v>38</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
